--- a/src/main/resources/validation/1.xlsx
+++ b/src/main/resources/validation/1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cristopher\OneDrive\Documentos\U\INT1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\001812815\Documents\GitHub\conversor-coordenadas\src\main\resources\validation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6A2FBC5-8F9F-44E7-ACF8-E5576D23EB0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3536134E-54A1-48F1-A613-ED52203D6973}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GEODESICAS-CARTESIANAS" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,6 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1182,6 +1181,39 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1237,39 +1269,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3859,34 +3858,34 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B14" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" customWidth="1"/>
-    <col min="7" max="7" width="8.42578125" customWidth="1"/>
+    <col min="2" max="2" width="19.453125" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" customWidth="1"/>
+    <col min="4" max="4" width="14.1796875" customWidth="1"/>
+    <col min="6" max="6" width="8.26953125" customWidth="1"/>
+    <col min="7" max="7" width="8.453125" customWidth="1"/>
     <col min="8" max="8" width="15" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" customWidth="1"/>
-    <col min="10" max="10" width="12.140625" customWidth="1"/>
-    <col min="11" max="11" width="16.7109375" customWidth="1"/>
-    <col min="12" max="12" width="7.140625" customWidth="1"/>
+    <col min="9" max="9" width="14.1796875" customWidth="1"/>
+    <col min="10" max="10" width="12.1796875" customWidth="1"/>
+    <col min="11" max="11" width="16.7265625" customWidth="1"/>
+    <col min="12" max="12" width="7.1796875" customWidth="1"/>
     <col min="13" max="13" width="25" customWidth="1"/>
-    <col min="14" max="14" width="12.85546875" customWidth="1"/>
+    <col min="14" max="14" width="12.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="76" t="s">
         <v>41</v>
       </c>
       <c r="B1" s="76"/>
     </row>
-    <row r="2" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="76"/>
       <c r="B2" s="76"/>
       <c r="C2" s="39" t="s">
@@ -3907,7 +3906,7 @@
       </c>
       <c r="I2" s="80"/>
     </row>
-    <row r="3" spans="1:14" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="89" t="s">
         <v>13</v>
       </c>
@@ -3934,10 +3933,10 @@
       </c>
       <c r="I3" s="82"/>
     </row>
-    <row r="4" spans="1:14" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="90"/>
     </row>
-    <row r="5" spans="1:14" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="53"/>
       <c r="B5" s="53"/>
       <c r="C5" s="53"/>
@@ -3953,7 +3952,7 @@
       <c r="M5" s="53"/>
       <c r="N5" s="53"/>
     </row>
-    <row r="6" spans="1:14" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B6" s="83" t="s">
         <v>21</v>
       </c>
@@ -3972,7 +3971,7 @@
       <c r="M6" s="85"/>
       <c r="N6" s="86"/>
     </row>
-    <row r="7" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B7" s="77" t="s">
         <v>17</v>
       </c>
@@ -3986,7 +3985,7 @@
       <c r="J7" s="88"/>
       <c r="K7" s="88"/>
     </row>
-    <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C8" s="47" t="s">
         <v>18</v>
       </c>
@@ -4007,7 +4006,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B9" s="45" t="s">
         <v>37</v>
       </c>
@@ -4034,7 +4033,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B10" s="45" t="s">
         <v>38</v>
       </c>
@@ -4065,7 +4064,7 @@
         <v>37572501600383.727</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B11" s="46" t="s">
         <v>24</v>
       </c>
@@ -4080,7 +4079,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" hidden="1" x14ac:dyDescent="0.35">
       <c r="G12" s="44"/>
       <c r="H12" s="6" t="s">
         <v>35</v>
@@ -4096,7 +4095,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="48" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="3" t="s">
         <v>27</v>
       </c>
@@ -4121,7 +4120,7 @@
         <v>6381178.7038318822</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="70.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="4">
         <f>IF(F9="S",-1,1)*(((E9/60)/60)+(D9/60)+C9)</f>
         <v>-22.168111111111109</v>
@@ -4137,18 +4136,18 @@
         <v>-22.168111111111152</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="4">
         <f>IF(F10="O",-1,1)*(((E10/60)/60)+(D10/60)+C10)</f>
         <v>-60.256388888888885</v>
       </c>
       <c r="G15" s="44"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="G16" s="44"/>
       <c r="M16" s="67"/>
     </row>
-    <row r="17" spans="1:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="11"/>
       <c r="B17" s="73" t="s">
         <v>28</v>
@@ -4170,7 +4169,7 @@
         <v>-2394415.688423676</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B18" s="59" t="s">
         <v>29</v>
       </c>
@@ -4196,7 +4195,7 @@
         <v>5876683.9490332576</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B19" s="60" t="s">
         <v>30</v>
       </c>
@@ -4228,7 +4227,7 @@
         <v>-22.168111111111152</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B20" s="61" t="s">
         <v>31</v>
       </c>
@@ -4256,7 +4255,7 @@
         <v>5.2000000001470426</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C21">
         <v>-2392130.8340244102</v>
       </c>
@@ -4326,27 +4325,27 @@
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" customWidth="1"/>
-    <col min="3" max="4" width="13.85546875" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15.1796875" customWidth="1"/>
+    <col min="3" max="4" width="13.81640625" customWidth="1"/>
+    <col min="5" max="5" width="16.26953125" customWidth="1"/>
+    <col min="6" max="6" width="18.453125" customWidth="1"/>
+    <col min="7" max="7" width="14.26953125" customWidth="1"/>
+    <col min="8" max="8" width="13.453125" customWidth="1"/>
     <col min="9" max="9" width="15" customWidth="1"/>
-    <col min="10" max="10" width="16.140625" customWidth="1"/>
-    <col min="12" max="12" width="16.140625" customWidth="1"/>
+    <col min="10" max="10" width="16.1796875" customWidth="1"/>
+    <col min="12" max="12" width="16.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="113" t="s">
+    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A2" s="94" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="114"/>
-      <c r="C2" s="115"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="96"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
@@ -4356,10 +4355,10 @@
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="116"/>
-      <c r="B3" s="117"/>
-      <c r="C3" s="118"/>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A3" s="97"/>
+      <c r="B3" s="98"/>
+      <c r="C3" s="99"/>
       <c r="D3" s="6"/>
       <c r="E3" s="48" t="s">
         <v>14</v>
@@ -4370,22 +4369,22 @@
       <c r="G3" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="122" t="s">
+      <c r="H3" s="103" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="122"/>
-      <c r="J3" s="122" t="s">
+      <c r="I3" s="103"/>
+      <c r="J3" s="103" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="122"/>
+      <c r="K3" s="103"/>
       <c r="L3" s="52" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="119"/>
-      <c r="B4" s="120"/>
-      <c r="C4" s="121"/>
+    <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="100"/>
+      <c r="B4" s="101"/>
+      <c r="C4" s="102"/>
       <c r="D4" s="6"/>
       <c r="E4" s="49">
         <f>'GEODESICAS-CARTESIANAS'!C3</f>
@@ -4399,22 +4398,22 @@
         <f>'GEODESICAS-CARTESIANAS'!E3</f>
         <v>298.25700000000001</v>
       </c>
-      <c r="H4" s="123">
+      <c r="H4" s="104">
         <f>'GEODESICAS-CARTESIANAS'!F3</f>
         <v>6.6943800667646578E-3</v>
       </c>
-      <c r="I4" s="123"/>
-      <c r="J4" s="123">
+      <c r="I4" s="104"/>
+      <c r="J4" s="104">
         <f>'GEODESICAS-CARTESIANAS'!H3</f>
         <v>6.739496819936062E-3</v>
       </c>
-      <c r="K4" s="123"/>
+      <c r="K4" s="104"/>
       <c r="L4" s="51">
         <f>(E4^2)/F4</f>
         <v>6399593.6260053245</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -4427,7 +4426,7 @@
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
     </row>
-    <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -4440,35 +4439,35 @@
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="94" t="s">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A7" s="105" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="95"/>
-      <c r="C7" s="95"/>
-      <c r="D7" s="95"/>
-      <c r="E7" s="95"/>
-      <c r="F7" s="95"/>
-      <c r="G7" s="96"/>
+      <c r="B7" s="106"/>
+      <c r="C7" s="106"/>
+      <c r="D7" s="106"/>
+      <c r="E7" s="106"/>
+      <c r="F7" s="106"/>
+      <c r="G7" s="107"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
     </row>
-    <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="97"/>
-      <c r="B8" s="98"/>
-      <c r="C8" s="98"/>
-      <c r="D8" s="98"/>
-      <c r="E8" s="98"/>
-      <c r="F8" s="98"/>
-      <c r="G8" s="99"/>
+    <row r="8" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="108"/>
+      <c r="B8" s="109"/>
+      <c r="C8" s="109"/>
+      <c r="D8" s="109"/>
+      <c r="E8" s="109"/>
+      <c r="F8" s="109"/>
+      <c r="G8" s="110"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
     </row>
-    <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="6"/>
       <c r="B9" s="6" t="s">
         <v>49</v>
@@ -4487,7 +4486,7 @@
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
     </row>
-    <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="45" t="s">
         <v>37</v>
       </c>
@@ -4510,7 +4509,7 @@
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
     </row>
-    <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="45" t="s">
         <v>38</v>
       </c>
@@ -4533,15 +4532,15 @@
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="100">
+      <c r="B12" s="111">
         <v>1250</v>
       </c>
-      <c r="C12" s="101"/>
-      <c r="D12" s="102"/>
+      <c r="C12" s="112"/>
+      <c r="D12" s="113"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
@@ -4550,7 +4549,7 @@
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -4563,7 +4562,7 @@
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
     </row>
-    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" s="33" t="s">
         <v>27</v>
       </c>
@@ -4594,7 +4593,7 @@
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
     </row>
-    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" s="6">
         <f>IF(E10="S",-1,1)*(((D10/60)/60)+(C10/60)+B10)</f>
         <v>-22.168111111111109</v>
@@ -4634,7 +4633,7 @@
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
     </row>
-    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" s="6">
         <f>IF(E11="O",-1,1)*(((D11/60)/60)+(C11/60)+B11)</f>
         <v>-60.256388888888885</v>
@@ -4653,7 +4652,7 @@
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
     </row>
-    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -4666,7 +4665,7 @@
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
     </row>
-    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" s="33" t="s">
         <v>61</v>
       </c>
@@ -4699,7 +4698,7 @@
       </c>
       <c r="K18" s="6"/>
     </row>
-    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" s="6">
         <f>(J4/2)*G15^2*COS(B15)^2</f>
         <v>5.6863051743208599E-6</v>
@@ -4742,7 +4741,7 @@
       </c>
       <c r="K19" s="6"/>
     </row>
-    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
@@ -4755,14 +4754,14 @@
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="6"/>
-      <c r="B21" s="103" t="s">
+      <c r="B21" s="114" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="104"/>
-      <c r="D21" s="104"/>
-      <c r="E21" s="105"/>
+      <c r="C21" s="115"/>
+      <c r="D21" s="115"/>
+      <c r="E21" s="116"/>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
@@ -4770,12 +4769,12 @@
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
     </row>
-    <row r="22" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="35"/>
-      <c r="B22" s="106"/>
-      <c r="C22" s="107"/>
-      <c r="D22" s="107"/>
-      <c r="E22" s="108"/>
+      <c r="B22" s="117"/>
+      <c r="C22" s="118"/>
+      <c r="D22" s="118"/>
+      <c r="E22" s="119"/>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
@@ -4783,16 +4782,16 @@
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
     </row>
-    <row r="23" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="6"/>
       <c r="B23" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="109">
+      <c r="C23" s="120">
         <f>G15*I15*(1+(A19/3))+500000</f>
         <v>782940.73115497129</v>
       </c>
-      <c r="D23" s="110"/>
+      <c r="D23" s="121"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
@@ -4801,16 +4800,16 @@
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
     </row>
-    <row r="24" spans="1:11" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="6"/>
       <c r="B24" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="111">
+      <c r="C24" s="122">
         <f>H15*I15*(1+A19)+J19+10000000</f>
         <v>7546007.8606261462</v>
       </c>
-      <c r="D24" s="112"/>
+      <c r="D24" s="123"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
@@ -4819,7 +4818,7 @@
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -4834,16 +4833,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A7:G8"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B21:E22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
     <mergeCell ref="A2:C4"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="J4:K4"/>
-    <mergeCell ref="A7:G8"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B21:E22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E11" xr:uid="{00000000-0002-0000-0100-000000000000}">
@@ -4866,16 +4865,16 @@
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="2" max="2" width="6.28515625" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" customWidth="1"/>
-    <col min="4" max="4" width="21.7109375" customWidth="1"/>
+    <col min="1" max="1" width="14.7265625" customWidth="1"/>
+    <col min="2" max="2" width="6.26953125" customWidth="1"/>
+    <col min="3" max="3" width="18.453125" customWidth="1"/>
+    <col min="4" max="4" width="21.7265625" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -4892,7 +4891,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>44</v>
       </c>
@@ -4912,7 +4911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -4932,7 +4931,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -4952,7 +4951,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -4972,7 +4971,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>46</v>
       </c>
@@ -4992,7 +4991,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -5012,7 +5011,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -5032,7 +5031,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -5052,7 +5051,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>47</v>
       </c>
@@ -5072,7 +5071,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -5092,7 +5091,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -5112,7 +5111,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -5132,7 +5131,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>13</v>
       </c>
